--- a/sample_documents/sample_spreadsheet.xlsx
+++ b/sample_documents/sample_spreadsheet.xlsx
@@ -1,88 +1,212 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc2mark\sample_documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3070F7-0FD4-48A8-BAA1-62D96E06086B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sample Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+  <si>
+    <t>Sample XLSX Spreadsheet</t>
+  </si>
+  <si>
+    <t>Generated on: 2025-06-13 21:47:32</t>
+  </si>
+  <si>
+    <t>Sample Image:</t>
+  </si>
+  <si>
+    <t>Structured Table:</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Desk Chair</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Coffee Mug</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Unstructured Table (Merged Cells):</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Grand Total (All Quarters)</t>
+  </si>
+  <si>
+    <t>Vertical Merge Example</t>
+  </si>
+  <si>
+    <t>Data 1</t>
+  </si>
+  <si>
+    <t>Data 2</t>
+  </si>
+  <si>
+    <t>Data 3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="$#,##0"/>
+    <numFmt numFmtId="176" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="\$#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="18"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF4472C4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0070AD47"/>
-        <bgColor rgb="0070AD47"/>
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF70AD47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC000"/>
-        <bgColor rgb="00FFC000"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FFE2EFDA"/>
       </patternFill>
     </fill>
   </fills>
@@ -95,153 +219,132 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>4</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2857500" cy="1905000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2421467</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>283949</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>186477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DAE2BF-4C64-4A35-2030-890C334CBEE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2421467" y="833967"/>
+          <a:ext cx="2857815" cy="1905210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -528,311 +631,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col width="36" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="37.75" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="5" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Sample XLSX Spreadsheet</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Generated on: 2025-06-13 21:47:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="3"/>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Sample Image:</t>
-        </is>
-      </c>
-    </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Structured Table:</t>
-        </is>
-      </c>
-    </row>
-    <row r="16"/>
-    <row r="17">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
-        <is>
-          <t>Electronics</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="n">
+    <row r="1" spans="1:6" ht="25.35" x14ac:dyDescent="0.85">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.6">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5">
         <v>999.99</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>Smartphone</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>Electronics</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5">
         <v>699.99</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>Desk Chair</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
-        <is>
-          <t>Furniture</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
         <v>199.99</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>Coffee Mug</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
-        <is>
-          <t>Kitchen</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5">
         <v>12.99</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25">
-      <c r="A25" s="4" t="inlineStr">
-        <is>
-          <t>Unstructured Table (Merged Cells):</t>
-        </is>
-      </c>
-    </row>
-    <row r="26"/>
-    <row r="27">
-      <c r="A27" s="8" t="inlineStr">
-        <is>
-          <t>Department</t>
-        </is>
-      </c>
-      <c r="B27" s="8" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="C27" s="8" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="E27" s="8" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="B28" s="9" t="n">
+    <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.6">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="7">
         <v>10000</v>
       </c>
-      <c r="C28" s="9" t="n">
+      <c r="C28" s="7">
         <v>12000</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D28" s="7">
         <v>15000</v>
       </c>
-      <c r="E28" s="9" t="n">
+      <c r="E28" s="7">
         <v>18000</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
-      </c>
-      <c r="B29" s="9" t="n">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="7">
         <v>5000</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="7">
         <v>6000</v>
       </c>
-      <c r="D29" s="9" t="n">
+      <c r="D29" s="7">
         <v>7000</v>
       </c>
-      <c r="E29" s="9" t="n">
+      <c r="E29" s="7">
         <v>8000</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="6" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="B30" s="9" t="n">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="7">
         <v>3000</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="7">
         <v>3200</v>
       </c>
-      <c r="D30" s="9" t="n">
+      <c r="D30" s="7">
         <v>3500</v>
       </c>
-      <c r="E30" s="9" t="n">
+      <c r="E30" s="7">
         <v>3800</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="10" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B31" s="11" t="n">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="9">
         <v>18000</v>
       </c>
-      <c r="C31" s="11" t="n">
+      <c r="C31" s="9">
         <v>21200</v>
       </c>
-      <c r="D31" s="11" t="n">
+      <c r="D31" s="9">
         <v>25500</v>
       </c>
-      <c r="E31" s="11" t="n">
+      <c r="E31" s="9">
         <v>29800</v>
       </c>
     </row>
-    <row r="32"/>
-    <row r="33">
-      <c r="A33" s="12" t="inlineStr">
-        <is>
-          <t>Grand Total (All Quarters)</t>
-        </is>
-      </c>
-      <c r="E33" s="13" t="n">
+    <row r="33" spans="1:5" ht="16.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="10">
         <v>94500</v>
       </c>
     </row>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36">
-      <c r="A36" s="14" t="inlineStr">
-        <is>
-          <t>Vertical Merge Example</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Data 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Data 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Data 3</t>
-        </is>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="12"/>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="12"/>
+      <c r="B38" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +874,8 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A33:D33"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>